--- a/data/trans_camb/P18_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>-15,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-24,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>-14,55</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-10,69</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,31</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-19,21</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 16,15</t>
+          <t>-11,5; 5,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 16,5</t>
+          <t>-26,96; -6,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 9,78</t>
+          <t>-16,62; 0,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 13,75</t>
+          <t>-49,51; -11,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 13,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 14,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 14,3</t>
+          <t>-11,69; 8,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 25,59</t>
+          <t>-15,91; 2,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 11,29</t>
+          <t>-16,54; 1,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 13,17</t>
+          <t>-26,38; -2,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 10,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 18,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 4,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; -3,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; -1,16</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-30,73; -11,17</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>-18,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-12,66%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-9,84%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-22,76%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 134,95</t>
+          <t>-12,35; 6,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 136,6</t>
+          <t>-28,55; -7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 72,93</t>
+          <t>-17,59; 0,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 105,11</t>
+          <t>-54,1; -12,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 73,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 85,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 84,33</t>
+          <t>-14,4; 10,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,76; 149,28</t>
+          <t>-18,84; 3,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 71,51</t>
+          <t>-19,8; 1,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 81,48</t>
+          <t>-31,79; -3,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 64,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 114,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 5,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; -4,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-16,58; -1,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-36,08; -13,7</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,11</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-9,35</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,02</t>
+          <t>-4,67; 8,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,55</t>
+          <t>-11,46; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,12</t>
+          <t>-10,53; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 18,94</t>
+          <t>-19,52; -3,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,58</t>
+          <t>-1,03; 12,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,47</t>
+          <t>-9,98; 4,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,65</t>
+          <t>-11,84; 1,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,61</t>
+          <t>-15,7; -0,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 8,22</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 0,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; 0,15</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; -3,63</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>-4,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>-11,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 27,19</t>
+          <t>-5,37; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 57,11</t>
+          <t>-13,09; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 56,14</t>
+          <t>-12,06; 3,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,44; 130,09</t>
+          <t>-22,96; -4,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 3,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 24,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 45,31</t>
+          <t>-1,29; 17,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 48,21</t>
+          <t>-12,83; 5,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 3,35</t>
+          <t>-14,9; 2,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 29,1</t>
+          <t>-20,2; -1,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 39,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 68,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 11,01</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 0,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 0,21</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; -4,83</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-7,6</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 7,31</t>
+          <t>-5,26; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,13</t>
+          <t>-9,92; 5,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 10,46</t>
+          <t>-13,63; 0,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 21,79</t>
+          <t>-18,69; -2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 10,93</t>
+          <t>-1,2; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 11,21</t>
+          <t>-7,55; 6,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,39</t>
+          <t>-11,05; 3,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,25</t>
+          <t>-12,38; 2,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 10,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 3,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; -0,04</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-13,43; -2,3</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-9,69%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 44,24</t>
+          <t>-6,02; 13,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 30,39</t>
+          <t>-11,43; 6,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 64,16</t>
+          <t>-15,82; 0,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,91; 130,86</t>
+          <t>-22,14; -3,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 5,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 23,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 50,29</t>
+          <t>-1,47; 19,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 48,98</t>
+          <t>-9,62; 9,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 11,82</t>
+          <t>-14,11; 4,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 20,8</t>
+          <t>-16,12; 3,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 46,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 68,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 13,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 4,79</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; -0,08</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; -3,05</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-7,02</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,34</t>
+          <t>-5,82; 4,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,55</t>
+          <t>-6,97; 4,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,38; 15,1</t>
+          <t>-12,94; -0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,15</t>
+          <t>-5,71; 3,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,07</t>
+          <t>-4,66; 6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,19</t>
+          <t>-14,35; -1,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 2,72</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 4,53</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; -2,91</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-8,89%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 27,44</t>
+          <t>-7,06; 5,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 41,15</t>
+          <t>-8,33; 6,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 41,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,3; 94,99</t>
+          <t>-15,73; -0,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 5,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 24,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 40,43</t>
+          <t>-7,32; 5,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,8; 57,3</t>
+          <t>-5,86; 8,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 7,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 26,15</t>
+          <t>-18,68; -2,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,61; 35,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,63; 66,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 3,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 5,8</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; -3,84</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-10,01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,57</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-8,86</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-9,42</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 4,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 0,13</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 0,01</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-14,94; -6,05</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 5,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 0,09</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; -3,56</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; -5,44</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,82</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; -0,5</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; -2,73</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-12,21; -6,67</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-6,32%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 5,75</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 0,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; -0,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; -7,45</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 6,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 0,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; -4,79</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,33; -7,27</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 4,89</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; -0,63</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -3,46</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; -8,55</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
